--- a/anonym_form_app/xlsx/report-all-tasks.xlsx
+++ b/anonym_form_app/xlsx/report-all-tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Описание</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Решение</t>
   </si>
 </sst>
 </file>
@@ -369,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,11 +386,13 @@
     <col min="4" max="4" width="14.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="17.7109375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="75.7109375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="17.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="50.7109375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -407,12 +412,15 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/anonym_form_app/xlsx/report-all-tasks.xlsx
+++ b/anonym_form_app/xlsx/report-all-tasks.xlsx
@@ -375,7 +375,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,7 +383,7 @@
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="125.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="75.7109375" style="2" customWidth="1"/>
